--- a/WpfTennis/WpfTennis/bin/Debug/Ace Club/FichierAdministrationAce Club.xlsx
+++ b/WpfTennis/WpfTennis/bin/Debug/Ace Club/FichierAdministrationAce Club.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sacha\Documents\Informatique\Informatique C#\Esilv_année_2019\Wpf_Tennis\WpfTennis\WpfTennis\bin\Debug\Ace Club\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sacha\Documents\Informatique\GitHub\Wpf_Projet_Tennis_Final\WpfTennis\WpfTennis\bin\Debug\Ace Club\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CCC9237-EDB8-433E-B830-A24E41204ACA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F769F295-5FBE-469E-9856-99E9BF12BE55}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1464" yWindow="0" windowWidth="17280" windowHeight="7692" xr2:uid="{EBC8A776-919C-4A83-AA6F-C896E080C6C2}"/>
+    <workbookView xWindow="5280" yWindow="2232" windowWidth="16872" windowHeight="9060" xr2:uid="{EBC8A776-919C-4A83-AA6F-C896E080C6C2}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
